--- a/Testdata/TC_69.xlsx
+++ b/Testdata/TC_69.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="My Series" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>BxoAAB+LCAAAAAAAAAOlWc1z28YV/1cwOrUHEgApWbJmjYxISiqnpKgRocrKpbMEViIqAMsCC0m8+ZJJ6jSnJpmmSZv6lE6nTnNoZzpxm/4vmVJ2T/0X+vYDiw9Sdul6NBL2/d57u/v27ftYo3duo9C4Jkka0PjRht20NgwSe9QP4stHGxm7aNgPNt5x0P6tR8JjnOCIMGA2QCpOd2/T4NHGlLHZrmne3Nw0b9pNmlyaLcuyzcfDwdibkgg3gjhlOPbIhpby3yy14aCuHw0Jwz5mWEo+2uiP+80uCbwe0IY4xpckaXayNIhJmu7HLGABSblkQjAj3d7wJ3JjTqv5oGkjc4lecHayIPQlX4VT0hUfTEvcICJOy7J3GtZOo227tr27ubXb3mra25vv5oKaEQ1wysYkuQ48QRgzHM2EuLXTtm17c6u9hcyVTKCrMICDRqF/Qq6DlPhdEobpWhYx1QHueQx2vZ4xLWSWZJWit1/CYYJnUzdgIVlvGZ2ea0SxWkuhxEEHNCEe2O+tlnREbkaJMqs7GwDqToOEzXt4vrau05Qkoxk30nqiDurRmO2FJGGnMzhr4oMrAOCwJCPIvAcshHpB6sF3EGfEdy5wmJaFKiA6o8lVOsMeOYJ7bHIdN3FIsQ8Ox4KUBV5aKFhC0HFCZ6ASZu/Q0D8AtTn3CkTr7sdgZD5xh9KruvoqiMS5ihOGU42w1r9ER+MpvRnF4XycTVIvCSbE73Vy7pUY4ldSSXezlNEIVlGQkKSVKMOhOYd/cAvrCOoRL4hweByCJVNnExRVCGgvY/QiYF0aZlGsTVqjojPYlEtu9Sb1GI3ghGNueBr345xfesNKqCpwQm/0nMuAsEOJvJd6uaMtA3XmHtDyE1xGxKHwXR4EISSJ8nGUqFXHGE8JYSu9QiKIx8MDnnaczvwoiyZwxyZw0a7FrCkyCxyBr4LDw7ocC1JJQ/y4lrUrfmAdGkb7sX8/Xw4imK40l2MDViMh2FPYCXF8BdSzgE2P9vK9rECQtMC9/MsYgus7C/FckLWVyjTUj70w84mMCv34QrgoX5vivhdHS6QBXHQH4Xjuzmc8Opj3cPTIBc5CSFgM4splETJqZLSXXtV5yiR0moT5iTu8HEihHvD8qOlBxOQ5r+nRiBNMSMNnY2SW+XnY98h+fDnA8WUGgVXbsU7X/sZDgpvgOOXb0XG05nqrmVB+LjK+O/KwRplwJ3lYFFBk1viQS6IZTXA4BMMEB1kscqhKEmDhIWZTNYK7HBIvN7JZiGqp6sryhb+JTVxKuQ0e9MuXskQVXHwzsvSQAaFKQ3ybQ+pD8sdhMEkqXrYSgxMrUmLub3x3a6bH/BCg/IRw82My5zVJMVB07rSOnQNihLqwJGd8srnT2rIe7EAo52MkdnxIoeiNI2A1emTCdo0ejQhPdLtGp7NrVOAZTQMGpytNpe7fW2spy6ODhPw8g4J7LpY2BP+tEKo4xNvLIMbhEp8GCn5nCFl4Gs5LnHLnA+oB493H/1x8+8XiybeLp8/+8/ffLD7/x+K9r+Cj04FfCnz+67s/fSd3LYWQiychEQtzOzs7VhtSX0FCKmxAMeBnHhO083NRHOgxUlWuGHT3+93DQUfEGU3MxXnhkfE7MsBzmhXDsdyMmEictJk7iGRx3DxuqXEF7RFeEcjLyQvaa1LlLuP3CUpbvHzx1csXz++VVgYrcg50N62GtfnGlAStQbtht+5JSbxRkHVg3oZs8TbEbpeYazzoBLopKPu0nfq+07ath9b2tmXrGO9rv17FVIeUJhdfmjU5SerSLGbJXLtAeZyDwv9duCwaljeiNFCu+tcPX/35kwqXsq6iVLXA4miWSG8y84FQfXTiGuPR6Ul333D3x9xPCqzEJ5W/hlnNru9V2WmWb13FpVZRpbrXCtZnPExoNluKGAV1BefK2LGM1iSFbZaXVmAr+NWpffHBKgG1E+Uzp3HAdGdXpqEKIkklXF3Bz77719/eXzz/cvH093cf/mLx7OPFR88qetRsuu0B14ULUh5qT4YopjJLjYLOxsKmV9ZPS5lEEXmNeEyDmKWObW+J+lANEcjaXJ34i/oRZDehWZgN6DUK+hFO92+ZuqzOETKrBFjoDENipUVdrQkyLhfm/fdvf3f3+V/uPv3m1ft/XDz9w+KXn7588eWrr5/Jm3T3yTd3H32tInc9uIu18GpdFnyG6P88g98wg6dp4/snvzJiygwoL4xMRJnvn3xWUsYXKgqRQjOUb3oh1SUssZaFuZxRWopeQ0VOi8hc3+Vpqa05VGKis8ArJnm3wVVBDWoI4Ad9t5GlxKBQOf0QdlJlLoT/VzklItPk8bbVslsKlavhW5jgtGT6w5BOcGjkgGiuaiwVqdcLFLxivsPBqLM3KFjkIkaJD72YxTtE/oHy8pGniX6aj3QTUVAAhRrPy0LeDy+xLUNacymcmaqxvNjz+Tvj6jaswgHteZLIaidWj5XjbAaFL1O16v24eJcplbpHsiwtF7/FuN+r4jAuoZDcqjAnCFxEKAXJaNVPeQ8rK9cjbppiCFjlLQfMod4jZfV0HcCRmDzw7CcJTVZGnwLJ2YZQNENEMQuLax5xprLA9ouzygl5xNMfsstTO6Q9EhK23mOdWUgPoQJ+W1k4+3VF++ko9JUx1+sytFkKBeUXS+4o/++DpXS2vSSBYok/bqz9wpg3qSfQ2665GrkVIcibPZhdPQEeBEnKHvNIoL4k5VxTzmXV+Zj3VvJDjM+dh3IMuFlWblZWmd9cJp+NaTgIomDNBtDKr3dVCZhyNpNVWX89R+GZ5YjcQs1Y0gAxcfIzyBq8i1lPm/RXCKVanj/LpMHllK27sO0JJj6ZWA1vQlqNTR9q+4eEQENgw2/staCL2OJvOko5BI6A3Kw5iZkfWPHfOc5/AZyCgioHGgAA</t>
+          <t>3xsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3d2Ok3Giml7FlwQLO45ih0z2BZW7y3GRvpju6iR+G2m1LMyyT+yuWFhYhhcQYpZ9AAntoOW/rHBmeOIvcOrSVzszdBhZM13nO+dU1alzqxr0zq3natckjGjgP94y68aWRnw7cKh/+XgrZrOaubv1joV6tzZxT3CIPcKAWQMpP9q/jejjrTlji31dv7m5qd9s14PwUm8Yhqk/GQ7G9px4uEb9iGHfJluplPN2qS0LdRxvSBh2MMNS8vFWf9yvdwi1u0AbYh9fkrDejiPqkyjq+YwySiIuGRLMSKc7/IHcmNWo79ZNpK/RM852TF1H8hU4JV3xwbRkQj1iNYyGUTNatUZzYrT2jca+0ao39/beTQRTRjTAERuT8JragjBm2FsIcaPVaBot+GghfSMT6MoMYKGR65ySaxoRp0NcN6pkEV0d4IHNYNfVjGkgPSerFD18CUchXswnlLmkqvhhEBIbDPWguY/JzShU9pssBoBO5jRkyy5eVtZ1FpFwtODWqCZqoW7gswOXhOxsAYdKHDhzACwWxgTp94CZUJdGNnxTPyaONcNulBcqgOg8CK+iBbbJMQSsznXc+G6AHfAsRiNG7ShTsIagkzBYgEqYvR24ziGoTbg3IKnuvg9G5hO3g+CqrL4IIuEFwh/gVD2c6l+jo/E8uBn57nIcTyM7pFPidNsJ90YM8dhT0p04YoEHq8hISNJylOFQX8IfCLcygrrEph52T1ywZGQ1QVGBgA5iFswo6wRu7PmpSUtUdA6bmpDbdJPpGI3ghH1u+MDv+wm/9IaNUFHgNLhJ51wHhB1y5IPIThxtHSgzd4GWnOA6Ig6F7/KQulAN8seRoxYdYzwnhG30CokgnvgOeX2x2svj2JtCjE0h0K7FrBHSMxyBr4LDw7osA2pGTfwmhrEvfrCOFEY937mfLwERTJebyzIBK5EQ7Mltu9i/Auo5ZfPjg2QvGxAkLXAv/zqGIHwXLl4KcmqlPA31fduNHSKzQt+fCRfla1Pc9+JojTSAQOdJgcxw7ELhYZA2LrOMUCKjg+iqzJMnobPQTQ7U4mU9grpuO17dhoTIa1fdDjxO0KGcno+RnufnWd0mPf9ygP3LGPJmaqYyPXUnHvGTEPsR30+aJkuetZkJJWaX6duSZzGKhbfIswgARXqJD02ItwhC7A7BMPQw9kUtVDUALDnEbK5GEKousXNWTkRTqeLKkoW/jU3EnNwGz+n5mMtRBRffjGwhZLwXaYhvcxg4UMSxS6dhwYk2YnBiWcVL3InvrmL1Sw4B2kjIJt8nS95bZANFnywXxDITQIxQB5ZkjU+brcaOsQv9khgjseOjAJpX3wNWrUumbF/rBh7hdWxfa7f3tQK8CCLK4HSlqVR4PVhLXh4dhuTHMTTOS7G0IfhvgVDEIZ1eUh+7a3wpkPFbQyiyc3eZ45Q7HwQ2MN59/M/V15+vnn69evb8P//41er3761+8j58tNvwlwJf/PLuz9/IXUshNMFTl4iFTdqtlrENlS0jIW5zXXQBTmwzQbu4ELU/HSPVrYpBp9fvHA3a4Gg5YiLO+4qYx8gAL4M4G47lZsRE4qT1xEEkizUR+rJxAe0SXvBlcPLG9JoUufP4fYLSFq9e/uHVyxf3SiuDZSUFGvdGzWi+teI0DHO7ZjbuqTi84ZdtnrpOmHs1A36NHHOJB53CrQi6utROfcfaNo0949Ejw0zWD7TErzcxlSGlaYIv9ZKcJHWC2GfhMnWB/DgBhf9PIFhSWEZEbqBc9W8fvv7LJwUuZV1FKWqBxQVxKL1JTwZC9fHpRBuPzk47PW3SG3M/ybAcn1T+BmY1expXeadZj7qCS22iSnVvFCzPeBQG8WItY2TUDZwbc8c6WpIUtllfWoZt4Fen9vlPNwmonSifOfMps9rdieb5qZMJGiogkpTDVQh+9s2//v7B6sUXq2e/u/vwZ6vnH68+el7Qo2ZLbzXguhAg+WHqyZDFVGUpUdD5WNj0yvhhrpIoIm8BTwLqs8gyzR3R/qkhAlmTqxP/or4H1U1oFmYDeomCvoej3i1TwWodI71IgIUuMBTWIGubU4LMy5l5//2b3979+q93n371+oM/rZ79cfXzT1+9/OL1l89lJN198tXdR1+qzF1O7mItvBmXHZ8mrne2xiNM42Va+/bpLzQ/YBq0F1osssy3Tz/LKeMLFY1Iphnat3QhxSWsseaFuZyWW0q6hoJcKiJrfYeXpe2UQxWmYEHtbJJ3a1wV9KCaAL7Tn9TiiGgBdE7fhZ0UmTPh/1VOicgyefLIaJgNhcrV8C1McZQz/ZEbTLGrJYC4O5VYClJvFsh4xXxHg1H7YJCxyEWMQgeuWga/APIP1I+SBjK9F2QUQKGvs2OXX3HX2NYhlHzlUpiu7oqzA4e/EW6+WRU44MYdhrLD8dVD4zheQLPLVH96Py6eWnLt7bFsRfMNbzbud4s4jHMoFLQizAkCF1lJQTJD9SN+LZXd6jE3TTYErPA8A+ZQb4myY7qmcAw6Tza9MAzCjRknQxK2ITTKkEX0zOIpj86nlE21k51VQkiyXPrB2/I0GQZd4hJW+aEtkR5C1/tQWTj7qqL9aOQ6ypjVbhapWTIF+ddG7ihVF3MQhtAK8ZeJys+DA+pf9avt3nr0aGdmm9CpmXu7hExbuzuzpt1s7s6aJjZtyJRSKb9pchX8JsKvadUmgQawKJ7dqU/hll1RmzSwEOTXTrCUCEiV2NMxOqRhxJ7wFKW+JOUipVzIdvgJX5/8EOMLa0+OAdfzc+mFRSfphcl36cAdUI9WvJkaSQ4qKgEvWCxku1j1PKHkHZNbaGZzGiBZT38E5Yxfr6ppk0EFOT6VT3SN42lldXoifAI496uHSfcc6MseLi3eeKn7fyxANF4PVdH3I3o5Z1XPtbG3t012SaPWmNl2rQmDGhTjac3Bsz3TMGbbzk6DP8Up5VAcKLmpOAkvKTSKsVtdTi/9N531XzU5G8TfGwAA</t>
         </r>
       </text>
     </comment>
@@ -40,12 +40,20 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="###0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +88,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,4 +473,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
+  <MetadataLink>
+    <MetadataLink>
+      <SheetId>My Series</SheetId>
+      <LinkPosRow>1</LinkPosRow>
+      <LinkPosCol>1</LinkPosCol>
+      <MetaDataSeries>
+        <MetadataSeries>
+          <InitRow>1</InitRow>
+          <InitCol>2</InitCol>
+          <EndRow>10</EndRow>
+          <EndCol>2</EndCol>
+          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
+          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
+          <SeriesId>310907701</SeriesId>
+          <Code>SR4825068</Code>
+          <Order>0</Order>
+        </MetadataSeries>
+      </MetaDataSeries>
+    </MetadataLink>
+  </MetadataLink>
+</MetadataExcelFile>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31234077-6FE8-4F7C-B8CB-F27635213AC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Testdata/TC_69.xlsx
+++ b/Testdata/TC_69.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="My Series" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>3xsAAB+LCAAAAAAAAAOlWVtvI0kV/iutPMGD3d2Ok3Giml7FlwQLO45ih0z2BZW7y3GRvpju6iR+G2m1LMyyT+yuWFhYhhcQYpZ9AAntoOW/rHBmeOIvcOrSVzszdBhZM13nO+dU1alzqxr0zq3natckjGjgP94y68aWRnw7cKh/+XgrZrOaubv1joV6tzZxT3CIPcKAWQMpP9q/jejjrTlji31dv7m5qd9s14PwUm8Yhqk/GQ7G9px4uEb9iGHfJluplPN2qS0LdRxvSBh2MMNS8vFWf9yvdwi1u0AbYh9fkrDejiPqkyjq+YwySiIuGRLMSKc7/IHcmNWo79ZNpK/RM852TF1H8hU4JV3xwbRkQj1iNYyGUTNatUZzYrT2jca+0ao39/beTQRTRjTAERuT8JragjBm2FsIcaPVaBot+GghfSMT6MoMYKGR65ySaxoRp0NcN6pkEV0d4IHNYNfVjGkgPSerFD18CUchXswnlLmkqvhhEBIbDPWguY/JzShU9pssBoBO5jRkyy5eVtZ1FpFwtODWqCZqoW7gswOXhOxsAYdKHDhzACwWxgTp94CZUJdGNnxTPyaONcNulBcqgOg8CK+iBbbJMQSsznXc+G6AHfAsRiNG7ShTsIagkzBYgEqYvR24ziGoTbg3IKnuvg9G5hO3g+CqrL4IIuEFwh/gVD2c6l+jo/E8uBn57nIcTyM7pFPidNsJ90YM8dhT0p04YoEHq8hISNJylOFQX8IfCLcygrrEph52T1ywZGQ1QVGBgA5iFswo6wRu7PmpSUtUdA6bmpDbdJPpGI3ghH1u+MDv+wm/9IaNUFHgNLhJ51wHhB1y5IPIThxtHSgzd4GWnOA6Ig6F7/KQulAN8seRoxYdYzwnhG30CokgnvgOeX2x2svj2JtCjE0h0K7FrBHSMxyBr4LDw7osA2pGTfwmhrEvfrCOFEY937mfLwERTJebyzIBK5EQ7Mltu9i/Auo5ZfPjg2QvGxAkLXAv/zqGIHwXLl4KcmqlPA31fduNHSKzQt+fCRfla1Pc9+JojTSAQOdJgcxw7ELhYZA2LrOMUCKjg+iqzJMnobPQTQ7U4mU9grpuO17dhoTIa1fdDjxO0KGcno+RnufnWd0mPf9ygP3LGPJmaqYyPXUnHvGTEPsR30+aJkuetZkJJWaX6duSZzGKhbfIswgARXqJD02ItwhC7A7BMPQw9kUtVDUALDnEbK5GEKousXNWTkRTqeLKkoW/jU3EnNwGz+n5mMtRBRffjGwhZLwXaYhvcxg4UMSxS6dhwYk2YnBiWcVL3InvrmL1Sw4B2kjIJt8nS95bZANFnywXxDITQIxQB5ZkjU+brcaOsQv9khgjseOjAJpX3wNWrUumbF/rBh7hdWxfa7f3tQK8CCLK4HSlqVR4PVhLXh4dhuTHMTTOS7G0IfhvgVDEIZ1eUh+7a3wpkPFbQyiyc3eZ45Q7HwQ2MN59/M/V15+vnn69evb8P//41er3761+8j58tNvwlwJf/PLuz9/IXUshNMFTl4iFTdqtlrENlS0jIW5zXXQBTmwzQbu4ELU/HSPVrYpBp9fvHA3a4Gg5YiLO+4qYx8gAL4M4G47lZsRE4qT1xEEkizUR+rJxAe0SXvBlcPLG9JoUufP4fYLSFq9e/uHVyxf3SiuDZSUFGvdGzWi+teI0DHO7ZjbuqTi84ZdtnrpOmHs1A36NHHOJB53CrQi6utROfcfaNo0949Ejw0zWD7TErzcxlSGlaYIv9ZKcJHWC2GfhMnWB/DgBhf9PIFhSWEZEbqBc9W8fvv7LJwUuZV1FKWqBxQVxKL1JTwZC9fHpRBuPzk47PW3SG3M/ybAcn1T+BmY1expXeadZj7qCS22iSnVvFCzPeBQG8WItY2TUDZwbc8c6WpIUtllfWoZt4Fen9vlPNwmonSifOfMps9rdieb5qZMJGiogkpTDVQh+9s2//v7B6sUXq2e/u/vwZ6vnH68+el7Qo2ZLbzXguhAg+WHqyZDFVGUpUdD5WNj0yvhhrpIoIm8BTwLqs8gyzR3R/qkhAlmTqxP/or4H1U1oFmYDeomCvoej3i1TwWodI71IgIUuMBTWIGubU4LMy5l5//2b3979+q93n371+oM/rZ79cfXzT1+9/OL1l89lJN198tXdR1+qzF1O7mItvBmXHZ8mrne2xiNM42Va+/bpLzQ/YBq0F1osssy3Tz/LKeMLFY1Iphnat3QhxSWsseaFuZyWW0q6hoJcKiJrfYeXpe2UQxWmYEHtbJJ3a1wV9KCaAL7Tn9TiiGgBdE7fhZ0UmTPh/1VOicgyefLIaJgNhcrV8C1McZQz/ZEbTLGrJYC4O5VYClJvFsh4xXxHg1H7YJCxyEWMQgeuWga/APIP1I+SBjK9F2QUQKGvs2OXX3HX2NYhlHzlUpiu7oqzA4e/EW6+WRU44MYdhrLD8dVD4zheQLPLVH96Py6eWnLt7bFsRfMNbzbud4s4jHMoFLQizAkCF1lJQTJD9SN+LZXd6jE3TTYErPA8A+ZQb4myY7qmcAw6Tza9MAzCjRknQxK2ITTKkEX0zOIpj86nlE21k51VQkiyXPrB2/I0GQZd4hJW+aEtkR5C1/tQWTj7qqL9aOQ6ypjVbhapWTIF+ddG7ihVF3MQhtAK8ZeJys+DA+pf9avt3nr0aGdmm9CpmXu7hExbuzuzpt1s7s6aJjZtyJRSKb9pchX8JsKvadUmgQawKJ7dqU/hll1RmzSwEOTXTrCUCEiV2NMxOqRhxJ7wFKW+JOUipVzIdvgJX5/8EOMLa0+OAdfzc+mFRSfphcl36cAdUI9WvJkaSQ4qKgEvWCxku1j1PKHkHZNbaGZzGiBZT38E5Yxfr6ppk0EFOT6VT3SN42lldXoifAI496uHSfcc6MseLi3eeKn7fyxANF4PVdH3I3o5Z1XPtbG3t012SaPWmNl2rQmDGhTjac3Bsz3TMGbbzk6DP8Up5VAcKLmpOAkvKTSKsVtdTi/9N531XzU5G8TfGwAA</t>
+          <t>BxoAAB+LCAAAAAAAAAOlWc1z28YV/1cwOrUHEgApWbJmjYxISiqnpKgRocrKpbMEViIqAMsCC0m8+ZJJ6jSnJpmmSZv6lE6nTnNoZzpxm/4vmVJ2T/0X+vYDiw9Sdul6NBL2/d57u/v27ftYo3duo9C4Jkka0PjRht20NgwSe9QP4stHGxm7aNgPNt5x0P6tR8JjnOCIMGA2QCpOd2/T4NHGlLHZrmne3Nw0b9pNmlyaLcuyzcfDwdibkgg3gjhlOPbIhpby3yy14aCuHw0Jwz5mWEo+2uiP+80uCbwe0IY4xpckaXayNIhJmu7HLGABSblkQjAj3d7wJ3JjTqv5oGkjc4lecHayIPQlX4VT0hUfTEvcICJOy7J3GtZOo227tr27ubXb3mra25vv5oKaEQ1wysYkuQ48QRgzHM2EuLXTtm17c6u9hcyVTKCrMICDRqF/Qq6DlPhdEobpWhYx1QHueQx2vZ4xLWSWZJWit1/CYYJnUzdgIVlvGZ2ea0SxWkuhxEEHNCEe2O+tlnREbkaJMqs7GwDqToOEzXt4vrau05Qkoxk30nqiDurRmO2FJGGnMzhr4oMrAOCwJCPIvAcshHpB6sF3EGfEdy5wmJaFKiA6o8lVOsMeOYJ7bHIdN3FIsQ8Ox4KUBV5aKFhC0HFCZ6ASZu/Q0D8AtTn3CkTr7sdgZD5xh9KruvoqiMS5ihOGU42w1r9ER+MpvRnF4XycTVIvCSbE73Vy7pUY4ldSSXezlNEIVlGQkKSVKMOhOYd/cAvrCOoRL4hweByCJVNnExRVCGgvY/QiYF0aZlGsTVqjojPYlEtu9Sb1GI3ghGNueBr345xfesNKqCpwQm/0nMuAsEOJvJd6uaMtA3XmHtDyE1xGxKHwXR4EISSJ8nGUqFXHGE8JYSu9QiKIx8MDnnaczvwoiyZwxyZw0a7FrCkyCxyBr4LDw7ocC1JJQ/y4lrUrfmAdGkb7sX8/Xw4imK40l2MDViMh2FPYCXF8BdSzgE2P9vK9rECQtMC9/MsYgus7C/FckLWVyjTUj70w84mMCv34QrgoX5vivhdHS6QBXHQH4Xjuzmc8Opj3cPTIBc5CSFgM4splETJqZLSXXtV5yiR0moT5iTu8HEihHvD8qOlBxOQ5r+nRiBNMSMNnY2SW+XnY98h+fDnA8WUGgVXbsU7X/sZDgpvgOOXb0XG05nqrmVB+LjK+O/KwRplwJ3lYFFBk1viQS6IZTXA4BMMEB1kscqhKEmDhIWZTNYK7HBIvN7JZiGqp6sryhb+JTVxKuQ0e9MuXskQVXHwzsvSQAaFKQ3ybQ+pD8sdhMEkqXrYSgxMrUmLub3x3a6bH/BCg/IRw82My5zVJMVB07rSOnQNihLqwJGd8srnT2rIe7EAo52MkdnxIoeiNI2A1emTCdo0ejQhPdLtGp7NrVOAZTQMGpytNpe7fW2spy6ODhPw8g4J7LpY2BP+tEKo4xNvLIMbhEp8GCn5nCFl4Gs5LnHLnA+oB493H/1x8+8XiybeLp8/+8/ffLD7/x+K9r+Cj04FfCnz+67s/fSd3LYWQiychEQtzOzs7VhtSX0FCKmxAMeBnHhO083NRHOgxUlWuGHT3+93DQUfEGU3MxXnhkfE7MsBzmhXDsdyMmEictJk7iGRx3DxuqXEF7RFeEcjLyQvaa1LlLuP3CUpbvHzx1csXz++VVgYrcg50N62GtfnGlAStQbtht+5JSbxRkHVg3oZs8TbEbpeYazzoBLopKPu0nfq+07ath9b2tmXrGO9rv17FVIeUJhdfmjU5SerSLGbJXLtAeZyDwv9duCwaljeiNFCu+tcPX/35kwqXsq6iVLXA4miWSG8y84FQfXTiGuPR6Ul333D3x9xPCqzEJ5W/hlnNru9V2WmWb13FpVZRpbrXCtZnPExoNluKGAV1BefK2LGM1iSFbZaXVmAr+NWpffHBKgG1E+Uzp3HAdGdXpqEKIkklXF3Bz77719/eXzz/cvH093cf/mLx7OPFR88qetRsuu0B14ULUh5qT4YopjJLjYLOxsKmV9ZPS5lEEXmNeEyDmKWObW+J+lANEcjaXJ34i/oRZDehWZgN6DUK+hFO92+ZuqzOETKrBFjoDENipUVdrQkyLhfm/fdvf3f3+V/uPv3m1ft/XDz9w+KXn7588eWrr5/Jm3T3yTd3H32tInc9uIu18GpdFnyG6P88g98wg6dp4/snvzJiygwoL4xMRJnvn3xWUsYXKgqRQjOUb3oh1SUssZaFuZxRWopeQ0VOi8hc3+Vpqa05VGKis8ArJnm3wVVBDWoI4Ad9t5GlxKBQOf0QdlJlLoT/VzklItPk8bbVslsKlavhW5jgtGT6w5BOcGjkgGiuaiwVqdcLFLxivsPBqLM3KFjkIkaJD72YxTtE/oHy8pGniX6aj3QTUVAAhRrPy0LeDy+xLUNacymcmaqxvNjz+Tvj6jaswgHteZLIaidWj5XjbAaFL1O16v24eJcplbpHsiwtF7/FuN+r4jAuoZDcqjAnCFxEKAXJaNVPeQ8rK9cjbppiCFjlLQfMod4jZfV0HcCRmDzw7CcJTVZGnwLJ2YZQNENEMQuLax5xprLA9ouzygl5xNMfsstTO6Q9EhK23mOdWUgPoQJ+W1k4+3VF++ko9JUx1+sytFkKBeUXS+4o/++DpXS2vSSBYok/bqz9wpg3qSfQ2665GrkVIcibPZhdPQEeBEnKHvNIoL4k5VxTzmXV+Zj3VvJDjM+dh3IMuFlWblZWmd9cJp+NaTgIomDNBtDKr3dVCZhyNpNVWX89R+GZ5YjcQs1Y0gAxcfIzyBq8i1lPm/RXCKVanj/LpMHllK27sO0JJj6ZWA1vQlqNTR9q+4eEQENgw2/staCL2OJvOko5BI6A3Kw5iZkfWPHfOc5/AZyCgioHGgAA</t>
         </r>
       </text>
     </comment>
@@ -40,20 +40,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="MM/yyyy"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="###0.0000"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF3A56"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -88,7 +80,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -473,37 +465,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<MetadataExcelFile xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema">
-  <MetadataLink>
-    <MetadataLink>
-      <SheetId>My Series</SheetId>
-      <LinkPosRow>1</LinkPosRow>
-      <LinkPosCol>1</LinkPosCol>
-      <MetaDataSeries>
-        <MetadataSeries>
-          <InitRow>1</InitRow>
-          <InitCol>2</InitCol>
-          <EndRow>10</EndRow>
-          <EndCol>2</EndCol>
-          <Name>Government Debt: Domestic: BB: Government Deposits</Name>
-          <DisplayName>Government Debt: Domestic: BB: Government Deposits</DisplayName>
-          <SeriesId>310907701</SeriesId>
-          <Code>SR4825068</Code>
-          <Order>0</Order>
-        </MetadataSeries>
-      </MetaDataSeries>
-    </MetadataLink>
-  </MetadataLink>
-</MetadataExcelFile>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{31234077-6FE8-4F7C-B8CB-F27635213AC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>